--- a/results/I2_N5_T30_C100_0_mean_res.xlsx
+++ b/results/I2_N5_T30_C100_0_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7190001010894775</v>
+        <v>0.6579999923706055</v>
       </c>
     </row>
     <row r="5">
